--- a/System/pcb/mini_rev0/aqplus_mini_rev0_CPL1.xlsx
+++ b/System/pcb/mini_rev0/aqplus_mini_rev0_CPL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\mini_rev0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7389E2FA-6C50-4785-8483-F3FD8B3FCF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC10E06-7087-4178-9BA6-F5D0B7996097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2163,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>75.5</v>
+        <v>76.77</v>
       </c>
       <c r="C52">
         <v>-122.175</v>
@@ -2183,7 +2183,7 @@
         <v>77.467151999999999</v>
       </c>
       <c r="C53">
-        <v>-44.459468999999999</v>
+        <v>-45.8</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -2197,16 +2197,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>101</v>
+        <v>97.45</v>
       </c>
       <c r="C54">
-        <v>-53.86</v>
+        <v>-52.5</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,7 +2217,7 @@
         <v>119</v>
       </c>
       <c r="C55">
-        <v>-48</v>
+        <v>-48.65</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -2231,10 +2231,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>149</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="C56">
-        <v>-43</v>
+        <v>-54.5</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
@@ -2251,7 +2251,7 @@
         <v>96</v>
       </c>
       <c r="C57">
-        <v>-98.67</v>
+        <v>-109.02</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -2302,7 +2302,7 @@
         <v>75.674599999999998</v>
       </c>
       <c r="C60">
-        <v>-56.525399999999998</v>
+        <v>-55.25</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>79.914599999999993</v>
       </c>
       <c r="C61">
-        <v>-56.525399999999998</v>
+        <v>-55.25</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -2333,7 +2333,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>84.804199999999994</v>
+        <v>86.05</v>
       </c>
       <c r="C62">
         <v>-66.007000000000005</v>

--- a/System/pcb/mini_rev0/aqplus_mini_rev0_CPL1.xlsx
+++ b/System/pcb/mini_rev0/aqplus_mini_rev0_CPL1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\mini_rev0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\Maker\mini-rev0\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC10E06-7087-4178-9BA6-F5D0B7996097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C75E21B-A8BA-4758-9310-EBD364E6BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="aquarius-plus-top-pos" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'aquarius-plus-top-pos'!$A$1:$E$117</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'aquarius-plus-top-pos'!$A$1:$E$114</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="119">
   <si>
     <t>C1</t>
   </si>
@@ -204,12 +204,6 @@
     <t>J9</t>
   </si>
   <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
     <t>JP1</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
   </si>
   <si>
     <t>JP3</t>
-  </si>
-  <si>
-    <t>JP4</t>
   </si>
   <si>
     <t>Q3</t>
@@ -966,8 +957,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="aquarius_plus_top_pos" displayName="aquarius_plus_top_pos" ref="A1:E117" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="aquarius_plus_top_pos" displayName="aquarius_plus_top_pos" ref="A1:E114" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E114" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Designator" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Mid X" queryTableFieldId="4"/>
@@ -1276,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,19 +1284,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,16 +2256,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>137.16</v>
+        <v>75.674599999999998</v>
       </c>
       <c r="C58">
-        <v>-116.08</v>
+        <v>-55.25</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,16 +2273,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>102.46</v>
+        <v>79.914599999999993</v>
       </c>
       <c r="C59">
-        <v>-68.760000000000005</v>
+        <v>-55.25</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,16 +2290,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>75.674599999999998</v>
+        <v>86.05</v>
       </c>
       <c r="C60">
-        <v>-55.25</v>
+        <v>-66.007000000000005</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,10 +2307,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>79.914599999999993</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="C61">
-        <v>-55.25</v>
+        <v>-101.95</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -2333,16 +2324,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>86.05</v>
+        <v>114.9494</v>
       </c>
       <c r="C62">
-        <v>-66.007000000000005</v>
+        <v>-61.123800000000003</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,10 +2341,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>74</v>
+        <v>117.9457</v>
       </c>
       <c r="C63">
-        <v>-66</v>
+        <v>-61.132300000000001</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -2367,16 +2358,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>78.650000000000006</v>
+        <v>122.1994</v>
       </c>
       <c r="C64">
-        <v>-101.95</v>
+        <v>-61.123800000000003</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,16 +2375,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>114.9494</v>
+        <v>125.20659999999999</v>
       </c>
       <c r="C65">
-        <v>-61.123800000000003</v>
+        <v>-61.118400000000001</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2401,16 +2392,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>117.9457</v>
+        <v>135.56360000000001</v>
       </c>
       <c r="C66">
-        <v>-61.132300000000001</v>
+        <v>-62.88</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,16 +2409,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>122.1994</v>
+        <v>142.43450000000001</v>
       </c>
       <c r="C67">
-        <v>-61.123800000000003</v>
+        <v>-62.862900000000003</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2435,16 +2426,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>125.20659999999999</v>
+        <v>149.3193</v>
       </c>
       <c r="C68">
-        <v>-61.118400000000001</v>
+        <v>-62.864899999999999</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,10 +2443,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>135.56360000000001</v>
+        <v>156.40450000000001</v>
       </c>
       <c r="C69">
-        <v>-62.88</v>
+        <v>-62.866</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -2469,10 +2460,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>142.43450000000001</v>
+        <v>135.56360000000001</v>
       </c>
       <c r="C70">
-        <v>-62.862900000000003</v>
+        <v>-64.298299999999998</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -2486,10 +2477,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>149.3193</v>
+        <v>142.43450000000001</v>
       </c>
       <c r="C71">
-        <v>-62.864899999999999</v>
+        <v>-64.273899999999998</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -2503,10 +2494,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>156.40450000000001</v>
+        <v>149.3193</v>
       </c>
       <c r="C72">
-        <v>-62.866</v>
+        <v>-64.281999999999996</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -2520,10 +2511,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>135.56360000000001</v>
+        <v>156.40629999999999</v>
       </c>
       <c r="C73">
-        <v>-64.298299999999998</v>
+        <v>-64.2791</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -2537,10 +2528,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>142.43450000000001</v>
+        <v>135.56360000000001</v>
       </c>
       <c r="C74">
-        <v>-64.273899999999998</v>
+        <v>-65.716700000000003</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -2554,10 +2545,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>149.3193</v>
+        <v>142.43340000000001</v>
       </c>
       <c r="C75">
-        <v>-64.281999999999996</v>
+        <v>-65.697000000000003</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -2571,10 +2562,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>156.40629999999999</v>
+        <v>149.31549999999999</v>
       </c>
       <c r="C76">
-        <v>-64.2791</v>
+        <v>-65.692999999999998</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -2591,7 +2582,7 @@
         <v>135.56360000000001</v>
       </c>
       <c r="C77">
-        <v>-65.716700000000003</v>
+        <v>-67.135000000000005</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -2605,10 +2596,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>142.43340000000001</v>
+        <v>142.43450000000001</v>
       </c>
       <c r="C78">
-        <v>-65.697000000000003</v>
+        <v>-67.120099999999994</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -2622,10 +2613,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>149.31549999999999</v>
+        <v>149.3193</v>
       </c>
       <c r="C79">
-        <v>-65.692999999999998</v>
+        <v>-67.128100000000003</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
@@ -2639,16 +2630,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>135.56360000000001</v>
+        <v>172</v>
       </c>
       <c r="C80">
-        <v>-67.135000000000005</v>
+        <v>-67.063100000000006</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2656,16 +2647,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>142.43450000000001</v>
+        <v>173.4975</v>
       </c>
       <c r="C81">
-        <v>-67.120099999999994</v>
+        <v>-67.063100000000006</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2673,16 +2664,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>149.3193</v>
+        <v>175</v>
       </c>
       <c r="C82">
-        <v>-67.128100000000003</v>
+        <v>-67.063100000000006</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2690,7 +2681,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>172</v>
+        <v>176.5</v>
       </c>
       <c r="C83">
         <v>-67.063100000000006</v>
@@ -2707,10 +2698,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>173.4975</v>
+        <v>178</v>
       </c>
       <c r="C84">
-        <v>-67.063100000000006</v>
+        <v>-67.05</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -2724,7 +2715,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>175</v>
+        <v>179.5</v>
       </c>
       <c r="C85">
         <v>-67.063100000000006</v>
@@ -2741,16 +2732,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>176.5</v>
+        <v>115.00662699999999</v>
       </c>
       <c r="C86">
-        <v>-67.063100000000006</v>
+        <v>-80.2</v>
       </c>
       <c r="D86" t="s">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,16 +2749,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>178</v>
+        <v>118.30662700000001</v>
       </c>
       <c r="C87">
-        <v>-67.05</v>
+        <v>-80.2</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,16 +2766,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>179.5</v>
+        <v>92.85</v>
       </c>
       <c r="C88">
-        <v>-67.063100000000006</v>
+        <v>-84.15</v>
       </c>
       <c r="D88" t="s">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,10 +2783,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>115.00662699999999</v>
+        <v>116.85</v>
       </c>
       <c r="C89">
-        <v>-80.2</v>
+        <v>-114.4256</v>
       </c>
       <c r="D89" t="s">
         <v>1</v>
@@ -2809,16 +2800,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>118.30662700000001</v>
+        <v>85.835800000000006</v>
       </c>
       <c r="C90">
-        <v>-80.2</v>
+        <v>-95.096599999999995</v>
       </c>
       <c r="D90" t="s">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2826,16 +2817,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>92.85</v>
+        <v>87.505300000000005</v>
       </c>
       <c r="C91">
-        <v>-84.15</v>
+        <v>-95.094099999999997</v>
       </c>
       <c r="D91" t="s">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2843,16 +2834,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>116.85</v>
+        <v>89.130700000000004</v>
       </c>
       <c r="C92">
-        <v>-114.4256</v>
+        <v>-95.091700000000003</v>
       </c>
       <c r="D92" t="s">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,16 +2851,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>85.835800000000006</v>
+        <v>92.411000000000001</v>
       </c>
       <c r="C93">
-        <v>-95.096599999999995</v>
+        <v>-95.082599999999999</v>
       </c>
       <c r="D93" t="s">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,10 +2868,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>87.505300000000005</v>
+        <v>98.282899999999998</v>
       </c>
       <c r="C94">
-        <v>-95.094099999999997</v>
+        <v>-95.078999999999994</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -2894,10 +2885,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>89.130700000000004</v>
+        <v>99.981099999999998</v>
       </c>
       <c r="C95">
-        <v>-95.091700000000003</v>
+        <v>-95.092600000000004</v>
       </c>
       <c r="D95" t="s">
         <v>1</v>
@@ -2911,10 +2902,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>92.411000000000001</v>
+        <v>102.1503</v>
       </c>
       <c r="C96">
-        <v>-95.082599999999999</v>
+        <v>-95.097499999999997</v>
       </c>
       <c r="D96" t="s">
         <v>1</v>
@@ -2928,10 +2919,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>98.282899999999998</v>
+        <v>103.6117</v>
       </c>
       <c r="C97">
-        <v>-95.078999999999994</v>
+        <v>-95.098200000000006</v>
       </c>
       <c r="D97" t="s">
         <v>1</v>
@@ -2945,16 +2936,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>99.981099999999998</v>
+        <v>105.06829999999999</v>
       </c>
       <c r="C98">
-        <v>-95.092600000000004</v>
+        <v>-95.097499999999997</v>
       </c>
       <c r="D98" t="s">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2962,16 +2953,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>102.1503</v>
+        <v>75.2</v>
       </c>
       <c r="C99">
-        <v>-95.097499999999997</v>
+        <v>-93.35</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,16 +2970,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>103.6117</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="C100">
-        <v>-95.098200000000006</v>
+        <v>-98.45</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2996,16 +2987,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>105.06829999999999</v>
+        <v>78</v>
       </c>
       <c r="C101">
-        <v>-95.097499999999997</v>
+        <v>-119.05</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3013,16 +3004,16 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>75.2</v>
+        <v>181.45750000000001</v>
       </c>
       <c r="C102">
-        <v>-93.35</v>
+        <v>-52.332500000000003</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,16 +3021,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>79.650000000000006</v>
+        <v>158.16249999999999</v>
       </c>
       <c r="C103">
-        <v>-98.45</v>
+        <v>-69.099999999999994</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3047,16 +3038,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>78</v>
+        <v>116.693327</v>
       </c>
       <c r="C104">
-        <v>-119.05</v>
+        <v>-73.550700000000006</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>-90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3064,16 +3055,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>181.45750000000001</v>
+        <v>158.54660000000001</v>
       </c>
       <c r="C105">
-        <v>-52.332500000000003</v>
+        <v>-75.905000000000001</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3081,10 +3072,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>158.16249999999999</v>
+        <v>135.22</v>
       </c>
       <c r="C106">
-        <v>-69.099999999999994</v>
+        <v>-93.212500000000006</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -3098,16 +3089,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>116.693327</v>
+        <v>177.10749999999999</v>
       </c>
       <c r="C107">
-        <v>-73.550700000000006</v>
+        <v>-76.848100000000002</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3115,10 +3106,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>158.54660000000001</v>
+        <v>158.56</v>
       </c>
       <c r="C108">
-        <v>-75.905000000000001</v>
+        <v>-87.601399999999998</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -3132,16 +3123,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>135.22</v>
+        <v>158.56</v>
       </c>
       <c r="C109">
-        <v>-93.212500000000006</v>
+        <v>-98.381399999999999</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3149,16 +3140,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>177.10749999999999</v>
+        <v>65</v>
       </c>
       <c r="C110">
-        <v>-76.848100000000002</v>
+        <v>-81</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3166,10 +3157,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>158.56</v>
+        <v>115.0775</v>
       </c>
       <c r="C111">
-        <v>-87.601399999999998</v>
+        <v>-107.7756</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -3186,7 +3177,7 @@
         <v>158.56</v>
       </c>
       <c r="C112">
-        <v>-98.381399999999999</v>
+        <v>-109.1914</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -3200,10 +3191,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>65</v>
+        <v>177.42269999999999</v>
       </c>
       <c r="C113">
-        <v>-81</v>
+        <v>-100.965</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -3217,66 +3208,15 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>115.0775</v>
+        <v>114.45</v>
       </c>
       <c r="C114">
-        <v>-107.7756</v>
+        <v>-92.95</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>158.56</v>
-      </c>
-      <c r="C115">
-        <v>-109.1914</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>177.42269999999999</v>
-      </c>
-      <c r="C116">
-        <v>-100.965</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>114.45</v>
-      </c>
-      <c r="C117">
-        <v>-92.95</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117">
         <v>-90</v>
       </c>
     </row>
